--- a/biology/Botanique/Eugenia_ledermannii/Eugenia_ledermannii.xlsx
+++ b/biology/Botanique/Eugenia_ledermannii/Eugenia_ledermannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugenia ledermannii Engl. &amp; Brehmer est une espèce de plantes de la famille des Myrtaceae et du genre Eugenia, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique ledermannii rend hommage au botaniste Carl Ludwig Ledermann qui en récolta de nombreux spécimens lors de son voyage[2] au Cameroun en 1908-1909[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique ledermannii rend hommage au botaniste Carl Ludwig Ledermann qui en récolta de nombreux spécimens lors de son voyage au Cameroun en 1908-1909.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit tantôt d'un arbuste ne dépassant pas 2 m de hauteur, tantôt d'un petit arbre compris entre 4 et 8 m, à feuilles ovales pétiolées assez longues et à fleurs blanches ou roses[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit tantôt d'un arbuste ne dépassant pas 2 m de hauteur, tantôt d'un petit arbre compris entre 4 et 8 m, à feuilles ovales pétiolées assez longues et à fleurs blanches ou roses.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été récoltée sur trois sites dans la Région du Nord-Ouest (Cameroun), mais sa présence dans celle de l'Ouest (monts Bamboutos) est probable[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été récoltée sur trois sites dans la Région du Nord-Ouest (Cameroun), mais sa présence dans celle de l'Ouest (monts Bamboutos) est probable.
 </t>
         </is>
       </c>
